--- a/src/Doc/0719需求.xlsx
+++ b/src/Doc/0719需求.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,18 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>责任人</t>
     <rPh sb="0" eb="1">
       <t>z'r'r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成度</t>
-    <rPh sb="0" eb="1">
-      <t>wan'ch'du</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,12 +163,27 @@
     <t>启动页图片 xml配置；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>完成度（%）</t>
+    <rPh sb="0" eb="1">
+      <t>wan'ch'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含在文鹏注册里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -324,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -501,300 +504,393 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="85.83203125" customWidth="1"/>
+    <col min="1" max="1" width="85.875" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="23.1" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="90" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.1" customHeight="1">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/Doc/0719需求.xlsx
+++ b/src/Doc/0719需求.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>责任人</t>
     <rPh sb="0" eb="1">
@@ -65,22 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">注册字段优化，姓名 公司 职务 邮箱 名片，机构类型选择交互修改 </t>
-  </si>
-  <si>
-    <t>专家认证页面修改，提供模板（撰写用例），资源优势换成擅长话题。提交后交互语句修改</t>
-  </si>
-  <si>
     <t>资讯约见图标修改；</t>
   </si>
   <si>
     <t>评论删除全部评论也要删除掉；</t>
-  </si>
-  <si>
-    <t>显示全部修改样式，给人感觉是跳转的而不是展开  查看更多评价；</t>
-  </si>
-  <si>
-    <t>话题预约理由修改一下说明；</t>
   </si>
   <si>
     <t>专家主页推荐可点击区域变大、推荐后大拇指变色；</t>
@@ -176,6 +164,33 @@
   </si>
   <si>
     <t>开意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注册字段优化，姓名 公司 职务 邮箱 名片，机构类型选择交互修改 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示全部修改样式，给人感觉是跳转的而不是展开---  查看更多评价；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文鹏</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家认证页面修改，提供模板（撰写用例），资源优势换成擅长话题。提交后交互语句修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题预约理由修改一下说明；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.1" customHeight="1"/>
@@ -525,12 +540,12 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.1" customHeight="1">
+    <row r="1" spans="1:6" ht="23.1" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -539,174 +554,204 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23.1" customHeight="1">
+    <row r="2" spans="1:6" ht="23.1" customHeight="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23.1" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.1" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.1" customHeight="1">
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.1" customHeight="1">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.1" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.1" customHeight="1">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23.1" customHeight="1">
+    <row r="6" spans="1:6" ht="23.1" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.1" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.1" customHeight="1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.1" customHeight="1">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.1" customHeight="1">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="23.1" customHeight="1">
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.1" customHeight="1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.1" customHeight="1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="23.1" customHeight="1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -714,21 +759,21 @@
     </row>
     <row r="18" spans="1:3" ht="23.1" customHeight="1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.1" customHeight="1">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -736,10 +781,10 @@
     </row>
     <row r="20" spans="1:3" ht="23.1" customHeight="1">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -747,10 +792,10 @@
     </row>
     <row r="21" spans="1:3" ht="23.1" customHeight="1">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -758,21 +803,21 @@
     </row>
     <row r="22" spans="1:3" ht="23.1" customHeight="1">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.1" customHeight="1">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -780,10 +825,10 @@
     </row>
     <row r="24" spans="1:3" ht="23.1" customHeight="1">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -791,10 +836,10 @@
     </row>
     <row r="25" spans="1:3" ht="23.1" customHeight="1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -802,10 +847,10 @@
     </row>
     <row r="26" spans="1:3" ht="23.1" customHeight="1">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -813,10 +858,10 @@
     </row>
     <row r="27" spans="1:3" ht="23.1" customHeight="1">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -824,10 +869,10 @@
     </row>
     <row r="28" spans="1:3" ht="23.1" customHeight="1">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -835,10 +880,10 @@
     </row>
     <row r="29" spans="1:3" ht="23.1" customHeight="1">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -849,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -857,7 +902,7 @@
     </row>
     <row r="31" spans="1:3" ht="23.1" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.1" customHeight="1">
@@ -865,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -876,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -887,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>100</v>

--- a/src/Doc/0719需求.xlsx
+++ b/src/Doc/0719需求.xlsx
@@ -89,9 +89,6 @@
     <t>活动详情页分享右上角、收藏回到喜欢之后、增加我要评论、我要赞助和我要报名吸底；</t>
   </si>
   <si>
-    <t>专家主页增加、行业标签、个人标签、擅长业务；</t>
-  </si>
-  <si>
     <t>发布活动改成活动需求、里面不需要行业标签，修改标题和提示；</t>
   </si>
   <si>
@@ -191,6 +188,10 @@
   </si>
   <si>
     <t>话题预约理由修改一下说明；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家主页增加行业标签、个人标签、擅长业务；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +531,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.1" customHeight="1"/>
@@ -545,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -556,10 +557,10 @@
     </row>
     <row r="2" spans="1:6" ht="23.1" customHeight="1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -570,10 +571,10 @@
     </row>
     <row r="3" spans="1:6" ht="23.1" customHeight="1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -585,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.1" customHeight="1">
@@ -593,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -607,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -615,10 +616,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.1" customHeight="1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -626,16 +627,16 @@
     </row>
     <row r="7" spans="1:6" ht="23.1" customHeight="1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.1" customHeight="1">
@@ -643,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -654,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.1" customHeight="1">
@@ -665,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -676,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -687,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -698,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -706,13 +707,13 @@
     </row>
     <row r="14" spans="1:6" ht="23.1" customHeight="1">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>21</v>
@@ -723,10 +724,10 @@
     </row>
     <row r="15" spans="1:6" ht="23.1" customHeight="1">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -734,10 +735,10 @@
     </row>
     <row r="16" spans="1:6" ht="23.1" customHeight="1">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -748,10 +749,10 @@
     </row>
     <row r="17" spans="1:3" ht="23.1" customHeight="1">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -759,10 +760,10 @@
     </row>
     <row r="18" spans="1:3" ht="23.1" customHeight="1">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -770,10 +771,10 @@
     </row>
     <row r="19" spans="1:3" ht="23.1" customHeight="1">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -781,10 +782,10 @@
     </row>
     <row r="20" spans="1:3" ht="23.1" customHeight="1">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -792,10 +793,10 @@
     </row>
     <row r="21" spans="1:3" ht="23.1" customHeight="1">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -803,10 +804,10 @@
     </row>
     <row r="22" spans="1:3" ht="23.1" customHeight="1">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -814,10 +815,10 @@
     </row>
     <row r="23" spans="1:3" ht="23.1" customHeight="1">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -825,10 +826,10 @@
     </row>
     <row r="24" spans="1:3" ht="23.1" customHeight="1">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -836,10 +837,10 @@
     </row>
     <row r="25" spans="1:3" ht="23.1" customHeight="1">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -847,10 +848,10 @@
     </row>
     <row r="26" spans="1:3" ht="23.1" customHeight="1">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -858,10 +859,10 @@
     </row>
     <row r="27" spans="1:3" ht="23.1" customHeight="1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -869,10 +870,10 @@
     </row>
     <row r="28" spans="1:3" ht="23.1" customHeight="1">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -880,10 +881,10 @@
     </row>
     <row r="29" spans="1:3" ht="23.1" customHeight="1">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -894,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -902,7 +903,7 @@
     </row>
     <row r="31" spans="1:3" ht="23.1" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.1" customHeight="1">
@@ -910,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -921,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -932,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>100</v>

--- a/src/Doc/0719需求.xlsx
+++ b/src/Doc/0719需求.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.1" customHeight="1"/>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -876,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.1" customHeight="1">
